--- a/data/Excel Workbooks/Calvin/UnitedKingdomDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin/UnitedKingdomDataWorkbook.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="179">
   <si>
     <t>GDP [Millions of 1990$]</t>
   </si>
@@ -1204,6 +1204,12 @@
   </si>
   <si>
     <t>Calvin</t>
+  </si>
+  <si>
+    <t>iQp</t>
+  </si>
+  <si>
+    <t>iXp</t>
   </si>
 </sst>
 </file>
@@ -6194,7 +6200,7 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6530,12 +6536,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6548,6 +6548,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6555,6 +6561,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11849,11 +11858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106930792"/>
-        <c:axId val="-2106922760"/>
+        <c:axId val="2126818088"/>
+        <c:axId val="2126810200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106930792"/>
+        <c:axId val="2126818088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015.0"/>
@@ -11883,12 +11892,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106922760"/>
+        <c:crossAx val="2126810200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106922760"/>
+        <c:axId val="2126810200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -11922,7 +11931,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106930792"/>
+        <c:crossAx val="2126818088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -12875,11 +12884,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106824008"/>
-        <c:axId val="-2106815656"/>
+        <c:axId val="2127875784"/>
+        <c:axId val="2127867464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106824008"/>
+        <c:axId val="2127875784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -12909,13 +12918,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106815656"/>
+        <c:crossAx val="2127867464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106815656"/>
+        <c:axId val="2127867464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -12964,7 +12973,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106824008"/>
+        <c:crossAx val="2127875784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14718,11 +14727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106759192"/>
-        <c:axId val="-2106751304"/>
+        <c:axId val="2130327176"/>
+        <c:axId val="2130335064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106759192"/>
+        <c:axId val="2130327176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -14752,13 +14761,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106751304"/>
+        <c:crossAx val="2130335064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106751304"/>
+        <c:axId val="2130335064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14786,7 +14795,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106759192"/>
+        <c:crossAx val="2130327176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15718,11 +15727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106676184"/>
-        <c:axId val="-2106673048"/>
+        <c:axId val="2130410248"/>
+        <c:axId val="2130413384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106676184"/>
+        <c:axId val="2130410248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15732,12 +15741,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106673048"/>
+        <c:crossAx val="2130413384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106673048"/>
+        <c:axId val="2130413384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15748,7 +15757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106676184"/>
+        <c:crossAx val="2130410248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18772,18 +18781,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -18800,7 +18809,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J33"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18827,13 +18836,11 @@
       <c r="E1" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="47" t="str">
-        <f>'UK Workbook'!L7</f>
-        <v>iQ</v>
-      </c>
-      <c r="G1" s="47" t="str">
-        <f>'UK Workbook'!M7</f>
-        <v>iX</v>
+      <c r="F1" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="150" t="s">
+        <v>178</v>
       </c>
       <c r="H1" s="47" t="str">
         <f>'UK Workbook'!N7</f>
@@ -21125,13 +21132,13 @@
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="141" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="143" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="139" t="s">
@@ -21164,10 +21171,10 @@
       <c r="M29" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="143" t="s">
+      <c r="N29" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="145" t="s">
+      <c r="O29" s="143" t="s">
         <v>58</v>
       </c>
       <c r="P29" s="139" t="s">
@@ -21182,10 +21189,10 @@
       <c r="S29" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="143" t="s">
+      <c r="T29" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="145" t="s">
+      <c r="U29" s="143" t="s">
         <v>29</v>
       </c>
       <c r="V29" s="139" t="s">
@@ -21212,13 +21219,13 @@
       <c r="AC29" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="AD29" s="141" t="s">
+      <c r="AD29" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="AE29" s="143" t="s">
+      <c r="AE29" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="AF29" s="145" t="s">
+      <c r="AF29" s="143" t="s">
         <v>84</v>
       </c>
       <c r="AG29" s="139" t="s">
@@ -21245,14 +21252,14 @@
       <c r="AN29" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="AO29" s="141" t="s">
+      <c r="AO29" s="145" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" s="144"/>
+      <c r="A30" s="142"/>
       <c r="B30" s="140"/>
-      <c r="C30" s="146"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
       <c r="F30" s="140"/>
@@ -21263,14 +21270,14 @@
       <c r="K30" s="140"/>
       <c r="L30" s="140"/>
       <c r="M30" s="140"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="146"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="144"/>
       <c r="P30" s="140"/>
       <c r="Q30" s="140"/>
       <c r="R30" s="140"/>
       <c r="S30" s="140"/>
-      <c r="T30" s="144"/>
-      <c r="U30" s="146"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="144"/>
       <c r="V30" s="140"/>
       <c r="W30" s="140"/>
       <c r="X30" s="140"/>
@@ -21279,9 +21286,9 @@
       <c r="AA30" s="140"/>
       <c r="AB30" s="140"/>
       <c r="AC30" s="140"/>
-      <c r="AD30" s="142"/>
-      <c r="AE30" s="144"/>
-      <c r="AF30" s="146"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="142"/>
+      <c r="AF30" s="144"/>
       <c r="AG30" s="140"/>
       <c r="AH30" s="140"/>
       <c r="AI30" s="140"/>
@@ -21290,7 +21297,7 @@
       <c r="AL30" s="140"/>
       <c r="AM30" s="140"/>
       <c r="AN30" s="140"/>
-      <c r="AO30" s="142"/>
+      <c r="AO30" s="146"/>
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="48">
@@ -25943,14 +25950,27 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
     <mergeCell ref="T29:T30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="L29:L30"/>
@@ -25963,27 +25983,14 @@
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -37671,17 +37678,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="E5:G6"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -37725,11 +37732,11 @@
       </c>
       <c r="F1" s="119" t="str">
         <f>UKData!F1</f>
-        <v>iQ</v>
+        <v>iQp</v>
       </c>
       <c r="G1" s="119" t="str">
         <f>UKData!G1</f>
-        <v>iX</v>
+        <v>iXp</v>
       </c>
       <c r="H1" s="119" t="str">
         <f>UKData!H1</f>
